--- a/winter olympics.xlsx
+++ b/winter olympics.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vicky\Downloads\Ying-s-631-final-project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vicky\Downloads\Ying-s-631-final-p\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34575AAC-EC27-4C75-8211-63608A4997E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39218B51-35A2-48A8-A705-CB37BD409D73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D0AA441B-E3F8-4877-A2CA-1A4A3FA19B38}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="71">
   <si>
     <t>YEAR</t>
   </si>
@@ -151,9 +151,6 @@
     <t>Bobsled</t>
   </si>
   <si>
-    <t>Freestyle Skiing</t>
-  </si>
-  <si>
     <t>Sage Kotsenburg</t>
   </si>
   <si>
@@ -239,6 +236,18 @@
   </si>
   <si>
     <t>MEN</t>
+  </si>
+  <si>
+    <t>GENDER</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>MIXED</t>
   </si>
 </sst>
 </file>
@@ -282,7 +291,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -294,6 +303,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -609,10 +624,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A7A71A5-2F41-4F16-8C06-3FDE222A51A7}">
-  <dimension ref="A1:P63"/>
+  <dimension ref="A1:Q63"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29:D30"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -621,16 +636,16 @@
     <col min="2" max="2" width="18.42578125" style="4" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="23.42578125" style="4" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.42578125" style="4" customWidth="1"/>
-    <col min="6" max="6" width="11.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="23.42578125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="27.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="13.42578125" style="4" customWidth="1"/>
+    <col min="7" max="7" width="11.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="27.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -641,16 +656,19 @@
         <v>2</v>
       </c>
       <c r="D1" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="F1" s="3" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="G1" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>2002</v>
       </c>
@@ -660,14 +678,20 @@
       <c r="C2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="4">
-        <v>1</v>
-      </c>
-      <c r="F2" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="D2" s="6">
+        <v>1</v>
+      </c>
+      <c r="E2" s="6">
+        <v>0</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="G2" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>2002</v>
       </c>
@@ -677,14 +701,20 @@
       <c r="C3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="4">
-        <v>1</v>
-      </c>
-      <c r="F3" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="D3" s="6">
+        <v>1</v>
+      </c>
+      <c r="E3" s="6">
+        <v>0</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="G3" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>2002</v>
       </c>
@@ -694,15 +724,21 @@
       <c r="C4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="4">
-        <v>1</v>
-      </c>
-      <c r="F4" s="4">
-        <v>1</v>
-      </c>
-      <c r="O4" s="1"/>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="D4" s="6">
+        <v>0</v>
+      </c>
+      <c r="E4" s="6">
+        <v>1</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="G4" s="6">
+        <v>1</v>
+      </c>
+      <c r="P4" s="1"/>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>2002</v>
       </c>
@@ -712,15 +748,21 @@
       <c r="C5" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="4">
-        <v>1</v>
-      </c>
-      <c r="F5" s="4">
-        <v>1</v>
-      </c>
-      <c r="O5" s="1"/>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="D5" s="6">
+        <v>1</v>
+      </c>
+      <c r="E5" s="6">
+        <v>0</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="G5" s="6">
+        <v>1</v>
+      </c>
+      <c r="P5" s="1"/>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>2002</v>
       </c>
@@ -730,16 +772,22 @@
       <c r="C6" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="4">
-        <v>1</v>
-      </c>
-      <c r="F6" s="4">
-        <v>1</v>
-      </c>
-      <c r="O6" s="1"/>
+      <c r="D6" s="6">
+        <v>1</v>
+      </c>
+      <c r="E6" s="6">
+        <v>0</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="G6" s="6">
+        <v>1</v>
+      </c>
       <c r="P6" s="1"/>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q6" s="1"/>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>2002</v>
       </c>
@@ -749,16 +797,22 @@
       <c r="C7" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E7" s="4">
-        <v>1</v>
-      </c>
-      <c r="F7" s="4">
-        <v>1</v>
-      </c>
-      <c r="O7" s="1"/>
+      <c r="D7" s="6">
+        <v>0</v>
+      </c>
+      <c r="E7" s="6">
+        <v>1</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="G7" s="6">
+        <v>1</v>
+      </c>
       <c r="P7" s="1"/>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q7" s="1"/>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>2002</v>
       </c>
@@ -768,16 +822,22 @@
       <c r="C8" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E8" s="4">
-        <v>1</v>
-      </c>
-      <c r="F8" s="4">
-        <v>1</v>
-      </c>
-      <c r="O8" s="1"/>
+      <c r="D8" s="6">
+        <v>0</v>
+      </c>
+      <c r="E8" s="6">
+        <v>1</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="G8" s="6">
+        <v>1</v>
+      </c>
       <c r="P8" s="1"/>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q8" s="1"/>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>2002</v>
       </c>
@@ -787,16 +847,22 @@
       <c r="C9" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E9" s="4">
-        <v>1</v>
-      </c>
-      <c r="F9" s="4">
-        <v>1</v>
-      </c>
-      <c r="O9" s="1"/>
+      <c r="D9" s="6">
+        <v>0</v>
+      </c>
+      <c r="E9" s="6">
+        <v>1</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="G9" s="6">
+        <v>1</v>
+      </c>
       <c r="P9" s="1"/>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q9" s="1"/>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>2002</v>
       </c>
@@ -806,16 +872,22 @@
       <c r="C10" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E10" s="4">
-        <v>1</v>
-      </c>
-      <c r="F10" s="4">
-        <v>1</v>
-      </c>
-      <c r="O10" s="1"/>
+      <c r="D10" s="6">
+        <v>0</v>
+      </c>
+      <c r="E10" s="6">
+        <v>1</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="G10" s="6">
+        <v>1</v>
+      </c>
       <c r="P10" s="1"/>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q10" s="1"/>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>2002</v>
       </c>
@@ -825,16 +897,22 @@
       <c r="C11" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D11" s="4">
-        <v>1</v>
-      </c>
-      <c r="F11" s="4">
-        <v>1</v>
-      </c>
-      <c r="O11" s="1"/>
+      <c r="D11" s="6">
+        <v>1</v>
+      </c>
+      <c r="E11" s="6">
+        <v>0</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="G11" s="6">
+        <v>1</v>
+      </c>
       <c r="P11" s="1"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q11" s="1"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>2006</v>
       </c>
@@ -844,16 +922,22 @@
       <c r="C12" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E12" s="4">
-        <v>1</v>
-      </c>
-      <c r="F12" s="4">
-        <v>1</v>
-      </c>
-      <c r="N12" s="1"/>
-      <c r="P12" s="1"/>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="D12" s="6">
+        <v>0</v>
+      </c>
+      <c r="E12" s="6">
+        <v>1</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="G12" s="6">
+        <v>1</v>
+      </c>
+      <c r="O12" s="1"/>
+      <c r="Q12" s="1"/>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <v>2006</v>
       </c>
@@ -863,16 +947,22 @@
       <c r="C13" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E13" s="4">
-        <v>1</v>
-      </c>
-      <c r="F13" s="4">
-        <v>1</v>
-      </c>
-      <c r="N13" s="1"/>
-      <c r="P13" s="1"/>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="D13" s="6">
+        <v>0</v>
+      </c>
+      <c r="E13" s="6">
+        <v>1</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="G13" s="6">
+        <v>1</v>
+      </c>
+      <c r="O13" s="1"/>
+      <c r="Q13" s="1"/>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <v>2006</v>
       </c>
@@ -882,14 +972,20 @@
       <c r="C14" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D14" s="4">
-        <v>1</v>
-      </c>
-      <c r="F14" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="D14" s="6">
+        <v>1</v>
+      </c>
+      <c r="E14" s="6">
+        <v>0</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="G14" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
         <v>2006</v>
       </c>
@@ -899,14 +995,20 @@
       <c r="C15" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E15" s="4">
-        <v>1</v>
-      </c>
-      <c r="F15" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="D15" s="6">
+        <v>0</v>
+      </c>
+      <c r="E15" s="6">
+        <v>1</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="G15" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
         <v>2006</v>
       </c>
@@ -916,14 +1018,20 @@
       <c r="C16" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="E16" s="4">
-        <v>1</v>
-      </c>
-      <c r="F16" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="D16" s="6">
+        <v>0</v>
+      </c>
+      <c r="E16" s="6">
+        <v>1</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="G16" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
         <v>2006</v>
       </c>
@@ -933,14 +1041,20 @@
       <c r="C17" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E17" s="4">
-        <v>1</v>
-      </c>
-      <c r="F17" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="D17" s="6">
+        <v>0</v>
+      </c>
+      <c r="E17" s="6">
+        <v>1</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="G17" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
         <v>2006</v>
       </c>
@@ -950,14 +1064,20 @@
       <c r="C18" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E18" s="4">
-        <v>1</v>
-      </c>
-      <c r="F18" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="D18" s="6">
+        <v>0</v>
+      </c>
+      <c r="E18" s="6">
+        <v>1</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="G18" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
         <v>2006</v>
       </c>
@@ -967,14 +1087,20 @@
       <c r="C19" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D19" s="4">
-        <v>1</v>
-      </c>
-      <c r="F19" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="D19" s="6">
+        <v>1</v>
+      </c>
+      <c r="E19" s="6">
+        <v>0</v>
+      </c>
+      <c r="F19" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="G19" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
         <v>2006</v>
       </c>
@@ -984,31 +1110,43 @@
       <c r="C20" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E20" s="4">
-        <v>1</v>
-      </c>
-      <c r="F20" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="D20" s="6">
+        <v>0</v>
+      </c>
+      <c r="E20" s="6">
+        <v>1</v>
+      </c>
+      <c r="F20" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="G20" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
         <v>2010</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C21" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="D21" s="4">
-        <v>1</v>
-      </c>
-      <c r="F21" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C21" t="s">
+        <v>30</v>
+      </c>
+      <c r="D21" s="6">
+        <v>1</v>
+      </c>
+      <c r="E21" s="6">
+        <v>0</v>
+      </c>
+      <c r="F21" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="G21" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
         <v>2010</v>
       </c>
@@ -1018,15 +1156,21 @@
       <c r="C22" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E22" s="4">
-        <v>1</v>
-      </c>
-      <c r="F22" s="4">
-        <v>1</v>
-      </c>
-      <c r="K22" s="1"/>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="D22" s="6">
+        <v>0</v>
+      </c>
+      <c r="E22" s="6">
+        <v>1</v>
+      </c>
+      <c r="F22" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="G22" s="6">
+        <v>1</v>
+      </c>
+      <c r="L22" s="1"/>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" s="4">
         <v>2010</v>
       </c>
@@ -1036,14 +1180,20 @@
       <c r="C23" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D23" s="4">
-        <v>1</v>
-      </c>
-      <c r="F23" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="D23" s="6">
+        <v>1</v>
+      </c>
+      <c r="E23" s="6">
+        <v>0</v>
+      </c>
+      <c r="F23" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="G23" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
         <v>2010</v>
       </c>
@@ -1053,15 +1203,21 @@
       <c r="C24" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E24" s="4">
-        <v>1</v>
-      </c>
-      <c r="F24" s="4">
-        <v>1</v>
-      </c>
-      <c r="K24" s="1"/>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="D24" s="6">
+        <v>0</v>
+      </c>
+      <c r="E24" s="6">
+        <v>1</v>
+      </c>
+      <c r="F24" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="G24" s="6">
+        <v>1</v>
+      </c>
+      <c r="L24" s="1"/>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" s="4">
         <v>2010</v>
       </c>
@@ -1071,15 +1227,21 @@
       <c r="C25" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E25" s="4">
-        <v>1</v>
-      </c>
-      <c r="F25" s="4">
-        <v>1</v>
-      </c>
-      <c r="K25" s="1"/>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="D25" s="6">
+        <v>0</v>
+      </c>
+      <c r="E25" s="6">
+        <v>1</v>
+      </c>
+      <c r="F25" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="G25" s="6">
+        <v>1</v>
+      </c>
+      <c r="L25" s="1"/>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26" s="4">
         <v>2010</v>
       </c>
@@ -1089,15 +1251,21 @@
       <c r="C26" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E26" s="4">
-        <v>1</v>
-      </c>
-      <c r="F26" s="4">
-        <v>1</v>
-      </c>
-      <c r="K26" s="1"/>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="D26" s="6">
+        <v>0</v>
+      </c>
+      <c r="E26" s="6">
+        <v>1</v>
+      </c>
+      <c r="F26" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="G26" s="6">
+        <v>1</v>
+      </c>
+      <c r="L26" s="1"/>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27" s="4">
         <v>2010</v>
       </c>
@@ -1107,15 +1275,21 @@
       <c r="C27" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="E27" s="4">
-        <v>1</v>
-      </c>
-      <c r="F27" s="4">
-        <v>1</v>
-      </c>
-      <c r="K27" s="1"/>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="D27" s="6">
+        <v>0</v>
+      </c>
+      <c r="E27" s="6">
+        <v>1</v>
+      </c>
+      <c r="F27" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="G27" s="6">
+        <v>1</v>
+      </c>
+      <c r="L27" s="1"/>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28" s="4">
         <v>2010</v>
       </c>
@@ -1125,12 +1299,21 @@
       <c r="C28" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="F28" s="4">
-        <v>1</v>
-      </c>
-      <c r="K28" s="1"/>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="D28" s="6">
+        <v>0</v>
+      </c>
+      <c r="E28" s="6">
+        <v>0</v>
+      </c>
+      <c r="F28" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="G28" s="6">
+        <v>1</v>
+      </c>
+      <c r="L28" s="1"/>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29" s="4">
         <v>2010</v>
       </c>
@@ -1140,132 +1323,187 @@
       <c r="C29" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="E29" s="4">
-        <v>1</v>
-      </c>
-      <c r="F29" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="D29" s="6">
+        <v>0</v>
+      </c>
+      <c r="E29" s="6">
+        <v>1</v>
+      </c>
+      <c r="F29" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="G29" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30" s="4">
         <v>2014</v>
       </c>
       <c r="B30" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C30" t="s">
         <v>4</v>
       </c>
-      <c r="E30" s="4">
-        <v>1</v>
-      </c>
-      <c r="F30" s="4">
-        <v>1</v>
-      </c>
-      <c r="O30" s="1"/>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="D30" s="6">
+        <v>0</v>
+      </c>
+      <c r="E30" s="6">
+        <v>1</v>
+      </c>
+      <c r="F30" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="G30" s="6">
+        <v>1</v>
+      </c>
+      <c r="P30" s="1"/>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A31" s="4">
         <v>2014</v>
       </c>
       <c r="B31" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C31" t="s">
         <v>4</v>
       </c>
-      <c r="D31" s="4">
-        <v>1</v>
-      </c>
-      <c r="F31" s="4">
-        <v>1</v>
-      </c>
-      <c r="O31" s="1"/>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="D31" s="6">
+        <v>1</v>
+      </c>
+      <c r="E31" s="6">
+        <v>0</v>
+      </c>
+      <c r="F31" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="G31" s="6">
+        <v>1</v>
+      </c>
+      <c r="P31" s="1"/>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A32" s="4">
         <v>2014</v>
       </c>
       <c r="B32" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C32" t="s">
         <v>4</v>
       </c>
-      <c r="D32" s="4">
-        <v>1</v>
-      </c>
-      <c r="F32" s="4">
-        <v>1</v>
-      </c>
-      <c r="O32" s="1"/>
-    </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="D32" s="6">
+        <v>1</v>
+      </c>
+      <c r="E32" s="6">
+        <v>0</v>
+      </c>
+      <c r="F32" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="G32" s="6">
+        <v>1</v>
+      </c>
+      <c r="P32" s="1"/>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A33" s="4">
         <v>2014</v>
       </c>
       <c r="B33" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C33" t="s">
         <v>30</v>
       </c>
-      <c r="E33" s="4">
-        <v>1</v>
-      </c>
-      <c r="F33" s="4">
-        <v>1</v>
-      </c>
-      <c r="O33" s="1"/>
-    </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="D33" s="6">
+        <v>0</v>
+      </c>
+      <c r="E33" s="6">
+        <v>1</v>
+      </c>
+      <c r="F33" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="G33" s="6">
+        <v>1</v>
+      </c>
+      <c r="P33" s="1"/>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A34" s="4">
         <v>2014</v>
       </c>
       <c r="B34" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C34" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="D34" s="5"/>
-      <c r="E34" s="5"/>
-      <c r="F34" s="4">
-        <v>1</v>
-      </c>
-      <c r="O34" s="1"/>
-    </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="D34" s="7">
+        <v>0</v>
+      </c>
+      <c r="E34" s="7">
+        <v>0</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="G34" s="6">
+        <v>1</v>
+      </c>
+      <c r="P34" s="1"/>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A35" s="4">
         <v>2014</v>
       </c>
       <c r="B35" t="s">
-        <v>44</v>
-      </c>
-      <c r="C35" s="5"/>
-      <c r="D35" s="5"/>
-      <c r="E35" s="5"/>
-    </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D35" s="7">
+        <v>0</v>
+      </c>
+      <c r="E35" s="7">
+        <v>0</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="G35" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A36" s="4">
         <v>2014</v>
       </c>
       <c r="B36" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C36" t="s">
         <v>30</v>
       </c>
-      <c r="E36" s="4">
-        <v>1</v>
-      </c>
-      <c r="F36" s="4">
-        <v>1</v>
-      </c>
-      <c r="O36" s="1"/>
-    </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="D36" s="6">
+        <v>0</v>
+      </c>
+      <c r="E36" s="6">
+        <v>1</v>
+      </c>
+      <c r="F36" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="G36" s="6">
+        <v>1</v>
+      </c>
+      <c r="P36" s="1"/>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A37" s="4">
         <v>2014</v>
       </c>
@@ -1275,103 +1513,139 @@
       <c r="C37" t="s">
         <v>24</v>
       </c>
-      <c r="E37" s="4">
-        <v>1</v>
-      </c>
-      <c r="F37" s="4">
-        <v>1</v>
-      </c>
-      <c r="O37" s="1"/>
-    </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="D37" s="6">
+        <v>0</v>
+      </c>
+      <c r="E37" s="6">
+        <v>1</v>
+      </c>
+      <c r="F37" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="G37" s="6">
+        <v>1</v>
+      </c>
+      <c r="P37" s="1"/>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A38" s="4">
         <v>2014</v>
       </c>
       <c r="B38" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C38" t="s">
         <v>30</v>
       </c>
-      <c r="D38" s="4">
-        <v>1</v>
-      </c>
-      <c r="F38" s="4">
-        <v>1</v>
-      </c>
-      <c r="O38" s="1"/>
-    </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="D38" s="6">
+        <v>1</v>
+      </c>
+      <c r="E38" s="6">
+        <v>0</v>
+      </c>
+      <c r="F38" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="G38" s="6">
+        <v>1</v>
+      </c>
+      <c r="P38" s="1"/>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A39" s="4">
         <v>2014</v>
       </c>
       <c r="B39" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C39" t="s">
         <v>24</v>
       </c>
-      <c r="D39" s="4">
-        <v>1</v>
-      </c>
-      <c r="F39" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="D39" s="6">
+        <v>1</v>
+      </c>
+      <c r="E39" s="6">
+        <v>0</v>
+      </c>
+      <c r="F39" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="G39" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A40" s="4">
         <v>2018</v>
       </c>
       <c r="B40" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C40" t="s">
         <v>4</v>
       </c>
-      <c r="E40" s="4">
-        <v>1</v>
-      </c>
-      <c r="F40" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="D40" s="6">
+        <v>0</v>
+      </c>
+      <c r="E40" s="6">
+        <v>1</v>
+      </c>
+      <c r="F40" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="G40" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A41" s="4">
         <v>2018</v>
       </c>
       <c r="B41" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C41" t="s">
         <v>4</v>
       </c>
-      <c r="D41" s="4">
-        <v>1</v>
-      </c>
-      <c r="F41" s="4">
-        <v>1</v>
-      </c>
-      <c r="O41" s="1"/>
-    </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="D41" s="6">
+        <v>1</v>
+      </c>
+      <c r="E41" s="6">
+        <v>0</v>
+      </c>
+      <c r="F41" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="G41" s="6">
+        <v>1</v>
+      </c>
+      <c r="P41" s="1"/>
+    </row>
+    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A42" s="4">
         <v>2018</v>
       </c>
       <c r="B42" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C42" t="s">
         <v>4</v>
       </c>
-      <c r="D42" s="4">
-        <v>1</v>
-      </c>
-      <c r="F42" s="4">
-        <v>1</v>
-      </c>
-      <c r="O42" s="1"/>
-    </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="D42" s="6">
+        <v>1</v>
+      </c>
+      <c r="E42" s="6">
+        <v>0</v>
+      </c>
+      <c r="F42" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="G42" s="6">
+        <v>1</v>
+      </c>
+      <c r="P42" s="1"/>
+    </row>
+    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A43" s="4">
         <v>2018</v>
       </c>
@@ -1381,282 +1655,428 @@
       <c r="C43" t="s">
         <v>4</v>
       </c>
-      <c r="E43" s="4">
-        <v>1</v>
-      </c>
-      <c r="F43" s="4">
-        <v>1</v>
-      </c>
-      <c r="O43" s="1"/>
-    </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="D43" s="6">
+        <v>0</v>
+      </c>
+      <c r="E43" s="6">
+        <v>1</v>
+      </c>
+      <c r="F43" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="G43" s="6">
+        <v>1</v>
+      </c>
+      <c r="P43" s="1"/>
+    </row>
+    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A44" s="4">
         <v>2018</v>
       </c>
       <c r="B44" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C44" t="s">
         <v>24</v>
       </c>
-      <c r="D44" s="4">
-        <v>1</v>
-      </c>
-      <c r="F44" s="4">
-        <v>1</v>
-      </c>
-      <c r="O44" s="1"/>
-    </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="D44" s="6">
+        <v>1</v>
+      </c>
+      <c r="E44" s="6">
+        <v>0</v>
+      </c>
+      <c r="F44" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="G44" s="6">
+        <v>1</v>
+      </c>
+      <c r="P44" s="1"/>
+    </row>
+    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A45" s="4">
         <v>2018</v>
       </c>
       <c r="B45" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C45" t="s">
-        <v>52</v>
-      </c>
-      <c r="D45" s="4">
-        <v>1</v>
-      </c>
-      <c r="F45" s="4">
-        <v>1</v>
-      </c>
-      <c r="O45" s="1"/>
-    </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+      <c r="D45" s="6">
+        <v>1</v>
+      </c>
+      <c r="E45" s="6">
+        <v>0</v>
+      </c>
+      <c r="F45" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="G45" s="6">
+        <v>1</v>
+      </c>
+      <c r="P45" s="1"/>
+    </row>
+    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A46" s="4">
         <v>2018</v>
       </c>
       <c r="B46" t="s">
+        <v>50</v>
+      </c>
+      <c r="C46" t="s">
         <v>51</v>
       </c>
-      <c r="C46"/>
-      <c r="O46" s="1"/>
-    </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="D46" s="6">
+        <v>0</v>
+      </c>
+      <c r="E46" s="6">
+        <v>0</v>
+      </c>
+      <c r="F46" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="G46" s="6">
+        <v>0</v>
+      </c>
+      <c r="P46" s="1"/>
+    </row>
+    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A47" s="4">
         <v>2018</v>
       </c>
       <c r="B47" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C47" t="s">
         <v>30</v>
       </c>
-      <c r="E47" s="4">
-        <v>1</v>
-      </c>
-      <c r="F47" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="D47" s="6">
+        <v>0</v>
+      </c>
+      <c r="E47" s="6">
+        <v>1</v>
+      </c>
+      <c r="F47" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="G47" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A48" s="4">
         <v>2018</v>
       </c>
       <c r="B48" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C48" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="C48" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="D48" s="4">
-        <v>1</v>
-      </c>
-      <c r="F48" s="4">
-        <v>1</v>
-      </c>
-      <c r="O48" s="1"/>
-    </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="D48" s="6">
+        <v>1</v>
+      </c>
+      <c r="E48" s="6">
+        <v>0</v>
+      </c>
+      <c r="F48" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="G48" s="6">
+        <v>1</v>
+      </c>
+      <c r="P48" s="1"/>
+    </row>
+    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A49" s="4">
         <v>2018</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="E49" s="4">
-        <v>1</v>
-      </c>
-      <c r="F49" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
+        <v>54</v>
+      </c>
+      <c r="D49" s="6">
+        <v>0</v>
+      </c>
+      <c r="E49" s="6">
+        <v>1</v>
+      </c>
+      <c r="F49" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="G49" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A50" s="4">
         <v>2022</v>
       </c>
       <c r="B50" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C50" t="s">
         <v>4</v>
       </c>
-      <c r="D50" s="4">
-        <v>1</v>
-      </c>
-      <c r="F50" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="D50" s="6">
+        <v>1</v>
+      </c>
+      <c r="E50" s="6">
+        <v>0</v>
+      </c>
+      <c r="F50" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="G50" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A51" s="4">
         <v>2022</v>
       </c>
       <c r="B51" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C51" t="s">
         <v>18</v>
       </c>
-      <c r="E51" s="4">
-        <v>1</v>
-      </c>
-      <c r="F51" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="D51" s="6">
+        <v>0</v>
+      </c>
+      <c r="E51" s="6">
+        <v>1</v>
+      </c>
+      <c r="F51" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="G51" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A52" s="4">
         <v>2022</v>
       </c>
       <c r="B52" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C52" t="s">
         <v>30</v>
       </c>
-      <c r="F52" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="D52" s="6">
+        <v>0</v>
+      </c>
+      <c r="E52" s="6">
+        <v>0</v>
+      </c>
+      <c r="F52" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="G52" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A53" s="4">
         <v>2022</v>
       </c>
       <c r="B53" t="s">
-        <v>59</v>
-      </c>
-      <c r="C53"/>
-      <c r="P53" s="1"/>
-    </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+      <c r="C53" t="s">
+        <v>30</v>
+      </c>
+      <c r="D53" s="6">
+        <v>0</v>
+      </c>
+      <c r="E53" s="6">
+        <v>0</v>
+      </c>
+      <c r="F53" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="G53" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q53" s="1"/>
+    </row>
+    <row r="54" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A54" s="4">
         <v>2022</v>
       </c>
       <c r="B54" t="s">
-        <v>60</v>
-      </c>
-      <c r="C54"/>
-      <c r="P54" s="1"/>
-    </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+      <c r="C54" t="s">
+        <v>30</v>
+      </c>
+      <c r="D54" s="6">
+        <v>0</v>
+      </c>
+      <c r="E54" s="6">
+        <v>0</v>
+      </c>
+      <c r="F54" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="G54" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q54" s="1"/>
+    </row>
+    <row r="55" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A55" s="4">
         <v>2022</v>
       </c>
       <c r="B55" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C55" t="s">
         <v>4</v>
       </c>
-      <c r="D55" s="4">
-        <v>1</v>
-      </c>
-      <c r="F55" s="4">
-        <v>1</v>
-      </c>
-      <c r="P55" s="1"/>
-    </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="D55" s="6">
+        <v>1</v>
+      </c>
+      <c r="E55" s="6">
+        <v>0</v>
+      </c>
+      <c r="F55" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="G55" s="6">
+        <v>1</v>
+      </c>
+      <c r="Q55" s="1"/>
+    </row>
+    <row r="56" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A56" s="4">
         <v>2022</v>
       </c>
       <c r="B56" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C56" t="s">
         <v>4</v>
       </c>
-      <c r="F56" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="D56" s="6">
+        <v>0</v>
+      </c>
+      <c r="E56" s="6">
+        <v>0</v>
+      </c>
+      <c r="F56" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="G56" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A57" s="4">
         <v>2022</v>
       </c>
       <c r="B57" t="s">
-        <v>56</v>
-      </c>
-      <c r="C57"/>
-    </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+      <c r="C57" t="s">
+        <v>4</v>
+      </c>
+      <c r="D57" s="6">
+        <v>0</v>
+      </c>
+      <c r="E57" s="6">
+        <v>0</v>
+      </c>
+      <c r="F57" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="G57" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A58" s="4">
         <v>2022</v>
       </c>
       <c r="B58" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C58" t="s">
         <v>7</v>
       </c>
-      <c r="D58" s="4">
-        <v>1</v>
-      </c>
-      <c r="F58" s="4">
-        <v>1</v>
-      </c>
-      <c r="P58" s="1"/>
-    </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="D58" s="6">
+        <v>1</v>
+      </c>
+      <c r="E58" s="6">
+        <v>0</v>
+      </c>
+      <c r="F58" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="G58" s="6">
+        <v>1</v>
+      </c>
+      <c r="Q58" s="1"/>
+    </row>
+    <row r="59" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A59" s="4">
         <v>2022</v>
       </c>
       <c r="B59" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C59" t="s">
         <v>10</v>
       </c>
-      <c r="D59" s="4">
-        <v>1</v>
-      </c>
-      <c r="F59" s="4">
-        <v>1</v>
-      </c>
-      <c r="P59" s="1"/>
-    </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="D59" s="6">
+        <v>1</v>
+      </c>
+      <c r="E59" s="6">
+        <v>0</v>
+      </c>
+      <c r="F59" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="G59" s="6">
+        <v>1</v>
+      </c>
+      <c r="Q59" s="1"/>
+    </row>
+    <row r="60" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A60" s="4">
         <v>2022</v>
       </c>
       <c r="B60" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C60" t="s">
         <v>30</v>
       </c>
-      <c r="E60" s="4">
-        <v>1</v>
-      </c>
-      <c r="F60" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="P61" s="1"/>
-    </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="P62" s="1"/>
-    </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="P63" s="1"/>
+      <c r="D60" s="6">
+        <v>0</v>
+      </c>
+      <c r="E60" s="6">
+        <v>1</v>
+      </c>
+      <c r="F60" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="G60" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="Q61" s="1"/>
+    </row>
+    <row r="62" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="Q62" s="1"/>
+    </row>
+    <row r="63" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="Q63" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
